--- a/QPR score.xlsx
+++ b/QPR score.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHEs_MINE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHEs_MINE\Desktop\sports data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{444E36B7-165E-4E59-8EF1-4045CDE22418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00E0BB-235E-4159-898F-5AD136ED01A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66AF84C8-A87F-4AFD-94D0-912A7EEEF9EF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GA</t>
   </si>
   <si>
     <t>Opponent</t>
@@ -571,49 +565,10 @@
     <t>Matchweek 37</t>
   </si>
   <si>
-    <r>
-      <t>12:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8.6"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>(05:30)</t>
-    </r>
-  </si>
-  <si>
-    <t>Matchweek 38</t>
-  </si>
-  <si>
-    <t>Head-to-Head</t>
-  </si>
-  <si>
-    <t>Matchweek 39</t>
-  </si>
-  <si>
-    <t>Matchweek 40</t>
-  </si>
-  <si>
-    <t>Matchweek 41</t>
-  </si>
-  <si>
-    <t>Matchweek 42</t>
-  </si>
-  <si>
-    <t>Matchweek 43</t>
-  </si>
-  <si>
-    <t>Matchweek 44</t>
-  </si>
-  <si>
-    <t>Matchweek 45</t>
-  </si>
-  <si>
-    <t>Matchweek 46</t>
+    <t>Goal Scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
   </si>
 </sst>
 </file>
@@ -704,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -812,39 +767,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF747678"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF949698"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -894,28 +822,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1233,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF09325E-783D-49C2-AA56-991BAA78B753}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A45" activeCellId="3" sqref="A12:XFD12 A23:XFD23 A34:XFD34 A45:XFD45"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,43 +1172,43 @@
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1309,22 +1216,22 @@
         <v>45514</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1333,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1">
         <v>0.8</v>
@@ -1348,17 +1255,17 @@
         <v>16587</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T2" s="16"/>
     </row>
@@ -1367,22 +1274,22 @@
         <v>45517</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -1391,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1402,17 +1309,17 @@
         <v>4529</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="9">
         <v>37684</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T3" s="16"/>
     </row>
@@ -1421,22 +1328,22 @@
         <v>45521</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1445,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1">
         <v>0.7</v>
@@ -1460,19 +1367,19 @@
         <v>27527</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T4" s="16"/>
     </row>
@@ -1481,22 +1388,22 @@
         <v>45528</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1505,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1">
         <v>2.4</v>
@@ -1520,19 +1427,19 @@
         <v>15285</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T5" s="16"/>
     </row>
@@ -1541,31 +1448,31 @@
         <v>45531</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1576,22 +1483,22 @@
         <v>7132</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="9">
         <v>37684</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1599,22 +1506,22 @@
         <v>45534</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -1623,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1">
         <v>0.9</v>
@@ -1638,19 +1545,19 @@
         <v>11798</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="9">
         <v>37684</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T7" s="16"/>
     </row>
@@ -1659,22 +1566,22 @@
         <v>45549</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1683,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1">
         <v>1.2</v>
@@ -1698,19 +1605,19 @@
         <v>26283</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="9">
         <v>37684</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T8" s="16"/>
     </row>
@@ -1719,22 +1626,22 @@
         <v>45552</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -1743,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1754,19 +1661,19 @@
         <v>13945</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="9">
         <v>37684</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T9" s="16"/>
     </row>
@@ -1775,22 +1682,22 @@
         <v>45556</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1799,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="1">
         <v>0.8</v>
@@ -1814,19 +1721,19 @@
         <v>15350</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T10" s="16"/>
     </row>
@@ -1835,22 +1742,22 @@
         <v>45563</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1859,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1">
         <v>0.5</v>
@@ -1874,19 +1781,19 @@
         <v>13789</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T11" s="16"/>
     </row>
@@ -1895,22 +1802,22 @@
         <v>45566</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1919,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1">
         <v>2.2999999999999998</v>
@@ -1934,19 +1841,19 @@
         <v>13407</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="9">
         <v>37714</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T12" s="16"/>
     </row>
@@ -1955,22 +1862,22 @@
         <v>45570</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1979,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K13" s="1">
         <v>0.5</v>
@@ -1994,19 +1901,19 @@
         <v>29305</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="9">
         <v>37714</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T13" s="16"/>
     </row>
@@ -2015,22 +1922,22 @@
         <v>45584</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2039,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -2054,19 +1961,19 @@
         <v>17438</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P14" s="9">
         <v>37684</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T14" s="16"/>
     </row>
@@ -2075,22 +1982,22 @@
         <v>45587</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2099,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15" s="1">
         <v>0.7</v>
@@ -2114,7 +2021,7 @@
         <v>14173</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P15" s="9">
         <v>37015</v>
@@ -2123,10 +2030,10 @@
         <v>37320</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T15" s="16"/>
     </row>
@@ -2135,22 +2042,22 @@
         <v>45591</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2159,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
         <v>0.1</v>
@@ -2174,19 +2081,19 @@
         <v>19187</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P16" s="9">
         <v>37350</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T16" s="16"/>
     </row>
@@ -2195,22 +2102,22 @@
         <v>45598</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2219,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" s="1">
         <v>1.4</v>
@@ -2234,19 +2141,19 @@
         <v>16754</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P17" s="9">
         <v>37684</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T17" s="16"/>
     </row>
@@ -2255,22 +2162,22 @@
         <v>45601</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -2279,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K18" s="1">
         <v>0.6</v>
@@ -2294,19 +2201,19 @@
         <v>14054</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T18" s="16"/>
     </row>
@@ -2315,22 +2222,22 @@
         <v>45605</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2339,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K19" s="1">
         <v>0.3</v>
@@ -2354,19 +2261,19 @@
         <v>36011</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P19" s="9">
         <v>37684</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T19" s="16"/>
     </row>
@@ -2375,22 +2282,22 @@
         <v>45619</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -2399,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20" s="1">
         <v>2.2000000000000002</v>
@@ -2414,19 +2321,19 @@
         <v>15688</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T20" s="16"/>
     </row>
@@ -2435,22 +2342,22 @@
         <v>45623</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -2459,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K21" s="1">
         <v>0.9</v>
@@ -2474,19 +2381,19 @@
         <v>16205</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T21" s="16"/>
     </row>
@@ -2495,22 +2402,22 @@
         <v>45626</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2519,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K22" s="1">
         <v>2.2000000000000002</v>
@@ -2534,19 +2441,19 @@
         <v>20413</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="9">
         <v>37684</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T22" s="16"/>
     </row>
@@ -2555,22 +2462,22 @@
         <v>45633</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
@@ -2579,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K23" s="1">
         <v>0.8</v>
@@ -2594,19 +2501,19 @@
         <v>15688</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="9">
         <v>37714</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T23" s="16"/>
     </row>
@@ -2615,22 +2522,22 @@
         <v>45637</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -2639,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" s="1">
         <v>0.7</v>
@@ -2654,19 +2561,19 @@
         <v>14440</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T24" s="16"/>
     </row>
@@ -2675,22 +2582,22 @@
         <v>45640</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -2699,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K25" s="1">
         <v>0.3</v>
@@ -2714,19 +2621,19 @@
         <v>20925</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T25" s="16"/>
     </row>
@@ -2735,22 +2642,22 @@
         <v>45647</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -2759,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K26" s="1">
         <v>2.1</v>
@@ -2774,19 +2681,19 @@
         <v>15323</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="9">
         <v>37684</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T26" s="16"/>
     </row>
@@ -2795,22 +2702,22 @@
         <v>45652</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2819,7 +2726,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K27" s="1">
         <v>0.4</v>
@@ -2834,19 +2741,19 @@
         <v>15843</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T27" s="16"/>
     </row>
@@ -2855,22 +2762,22 @@
         <v>45655</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -2879,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K28" s="1">
         <v>0.2</v>
@@ -2894,19 +2801,19 @@
         <v>26563</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="9">
         <v>37714</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T28" s="16"/>
     </row>
@@ -2915,22 +2822,22 @@
         <v>45658</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
@@ -2939,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K29" s="1">
         <v>1.5</v>
@@ -2954,7 +2861,7 @@
         <v>17268</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P29" s="9">
         <v>37714</v>
@@ -2963,10 +2870,10 @@
         <v>37684</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T29" s="16"/>
     </row>
@@ -2975,22 +2882,22 @@
         <v>45663</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30" s="1">
         <v>2</v>
@@ -2999,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30" s="1">
         <v>2.2000000000000002</v>
@@ -3014,19 +2921,19 @@
         <v>14025</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T30" s="16"/>
     </row>
@@ -3035,22 +2942,22 @@
         <v>45668</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H31" s="1">
         <v>2</v>
@@ -3059,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3070,19 +2977,19 @@
         <v>28242</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T31" s="16"/>
     </row>
@@ -3091,22 +2998,22 @@
         <v>45675</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -3115,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K32" s="1">
         <v>2.8</v>
@@ -3130,19 +3037,19 @@
         <v>16988</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T32" s="16"/>
     </row>
@@ -3151,22 +3058,22 @@
         <v>45678</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="H33" s="1">
         <v>2</v>
@@ -3175,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K33" s="1">
         <v>1.3</v>
@@ -3190,19 +3097,19 @@
         <v>19180</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T33" s="16"/>
     </row>
@@ -3211,22 +3118,22 @@
         <v>45682</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3235,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34" s="1">
         <v>0.4</v>
@@ -3250,19 +3157,19 @@
         <v>17352</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q34" s="9">
         <v>37350</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T34" s="16"/>
     </row>
@@ -3271,22 +3178,22 @@
         <v>45689</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -3295,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K35" s="1">
         <v>0.8</v>
@@ -3310,19 +3217,19 @@
         <v>17914</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T35" s="16"/>
     </row>
@@ -3331,22 +3238,22 @@
         <v>45692</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="H36" s="1">
         <v>2</v>
@@ -3355,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K36" s="1">
         <v>1.3</v>
@@ -3370,19 +3277,19 @@
         <v>13571</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T36" s="16"/>
     </row>
@@ -3391,22 +3298,22 @@
         <v>45699</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -3415,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K37" s="1">
         <v>0.8</v>
@@ -3430,19 +3337,19 @@
         <v>24600</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="9">
         <v>37684</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T37" s="16"/>
     </row>
@@ -3451,22 +3358,22 @@
         <v>45702</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38" s="1">
         <v>4</v>
@@ -3475,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K38" s="1">
         <v>0.9</v>
@@ -3490,19 +3397,19 @@
         <v>16591</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T38" s="16"/>
     </row>
@@ -3511,22 +3418,22 @@
         <v>45710</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -3535,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K39" s="1">
         <v>0.8</v>
@@ -3550,19 +3457,19 @@
         <v>20426</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T39" s="16"/>
     </row>
@@ -3571,22 +3478,22 @@
         <v>45717</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -3595,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K40" s="1">
         <v>1.4</v>
@@ -3610,19 +3517,19 @@
         <v>17346</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T40" s="16"/>
     </row>
@@ -3631,22 +3538,22 @@
         <v>45724</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -3655,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K41" s="1">
         <v>1.1000000000000001</v>
@@ -3670,19 +3577,19 @@
         <v>25310</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T41" s="16"/>
     </row>
@@ -3691,22 +3598,22 @@
         <v>45727</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -3715,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K42" s="1">
         <v>0.9</v>
@@ -3730,364 +3637,31 @@
         <v>22177</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
-        <v>45731</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T43" s="16"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
-        <v>45745</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T44" s="16"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>45752</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T45" s="16"/>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
-        <v>45756</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T46" s="16"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
-        <v>45759</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T47" s="16"/>
-    </row>
-    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
-        <v>45765</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T48" s="16"/>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
-        <v>45768</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T49" s="16"/>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
-        <v>45773</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T50" s="16"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
-        <v>45780</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="T51" s="24"/>
-    </row>
+    <row r="43" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://fbref.com/en/matches/ffa37749/Queens-Park-Rangers-West-Bromwich-Albion-August-10-2024-Championship" xr:uid="{CE481E60-62CE-442A-A114-B8E9FD3BB5D1}"/>
@@ -4336,44 +3910,8 @@
     <hyperlink ref="J42" r:id="rId244" display="https://fbref.com/en/squads/7f59c601/Middlesbrough-Stats" xr:uid="{011C74B4-6098-4749-B0F5-27A0A3F0ECBD}"/>
     <hyperlink ref="O42" r:id="rId245" display="https://fbref.com/en/players/3e5e4e63/Steve-Cook" xr:uid="{367C6154-8374-4803-91E3-016C49C5AAC6}"/>
     <hyperlink ref="S42" r:id="rId246" display="https://fbref.com/en/matches/98d5f553/Middlesbrough-Queens-Park-Rangers-March-11-2025-Championship" xr:uid="{AFEE1F78-7C49-4CF7-AC67-2B02D46360CA}"/>
-    <hyperlink ref="C43" r:id="rId247" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{FD1A992B-0F15-4B1C-B769-896B25154914}"/>
-    <hyperlink ref="D43" r:id="rId248" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{1515BD20-6353-4BE9-90E3-AFA6518F3B5F}"/>
-    <hyperlink ref="J43" r:id="rId249" display="https://fbref.com/en/squads/5bfb9659/Leeds-United-Stats" xr:uid="{52104717-024A-4D77-B369-8FDD268EC00A}"/>
-    <hyperlink ref="S43" r:id="rId250" display="https://fbref.com/en/stathead/matchup/teams/a757999c/5bfb9659/Queens-Park-Rangers-vs-Leeds-United-History" xr:uid="{BE986274-13AC-425C-9D0E-2239DD413845}"/>
-    <hyperlink ref="C44" r:id="rId251" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{CC080C0A-A7A2-4812-B2E0-27C978268D7E}"/>
-    <hyperlink ref="D44" r:id="rId252" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{BF3896FF-C6C0-4F65-98C5-DAD1A53B3DB9}"/>
-    <hyperlink ref="J44" r:id="rId253" display="https://fbref.com/en/squads/17892952/Stoke-City-Stats" xr:uid="{993CFB0A-FCCA-4864-BFD4-6190D31E2207}"/>
-    <hyperlink ref="S44" r:id="rId254" display="https://fbref.com/en/stathead/matchup/teams/a757999c/17892952/Queens-Park-Rangers-vs-Stoke-City-History" xr:uid="{11F13918-D278-4AB2-B5D6-A698DEC7C297}"/>
-    <hyperlink ref="C45" r:id="rId255" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{EA8D3E11-FA11-4E31-8FA9-061661596F94}"/>
-    <hyperlink ref="D45" r:id="rId256" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{D911B397-27B1-4AD8-ABA4-C7C9313D1D41}"/>
-    <hyperlink ref="J45" r:id="rId257" display="https://fbref.com/en/squads/75fae011/Cardiff-City-Stats" xr:uid="{0EC7644F-0011-45AE-A488-045568EAFBD4}"/>
-    <hyperlink ref="S45" r:id="rId258" display="https://fbref.com/en/stathead/matchup/teams/a757999c/75fae011/Queens-Park-Rangers-vs-Cardiff-City-History" xr:uid="{9D572751-D0E4-4EA4-9236-232236E7296C}"/>
-    <hyperlink ref="C46" r:id="rId259" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{71944319-EE0A-41D4-BB81-C8C41F443B8C}"/>
-    <hyperlink ref="D46" r:id="rId260" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{E9F8A052-E3E1-4DA3-A29F-DCE7C3155985}"/>
-    <hyperlink ref="J46" r:id="rId261" display="https://fbref.com/en/squads/604617a2/Oxford-United-Stats" xr:uid="{2B6DBEC2-2077-4237-A719-CF3780103241}"/>
-    <hyperlink ref="S46" r:id="rId262" display="https://fbref.com/en/stathead/matchup/teams/a757999c/604617a2/Queens-Park-Rangers-vs-Oxford-United-History" xr:uid="{9586FDCC-E85A-457A-B934-AE2200D1FEA0}"/>
-    <hyperlink ref="C47" r:id="rId263" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{CE0C7DDF-E16E-40FC-8656-5A0BBC4B09DB}"/>
-    <hyperlink ref="D47" r:id="rId264" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{12EE0C7B-4E6A-4054-A10E-F1C02203AD56}"/>
-    <hyperlink ref="J47" r:id="rId265" display="https://fbref.com/en/squads/93493607/Bristol-City-Stats" xr:uid="{B798F561-A90B-447F-8649-29FE5355AEE7}"/>
-    <hyperlink ref="S47" r:id="rId266" display="https://fbref.com/en/stathead/matchup/teams/a757999c/93493607/Queens-Park-Rangers-vs-Bristol-City-History" xr:uid="{71C4CDD3-44D9-458C-A113-20AC215BD0AD}"/>
-    <hyperlink ref="C48" r:id="rId267" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{485EDF2F-DC40-4806-9DF4-29CF6BF58372}"/>
-    <hyperlink ref="D48" r:id="rId268" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{B45B2EC9-A67A-4B96-92CF-953901D639AA}"/>
-    <hyperlink ref="J48" r:id="rId269" display="https://fbref.com/en/squads/22df8478/Preston-North-End-Stats" xr:uid="{AAC66A9A-501D-4DCE-8049-228BC26D3AE1}"/>
-    <hyperlink ref="S48" r:id="rId270" display="https://fbref.com/en/stathead/matchup/teams/a757999c/22df8478/Queens-Park-Rangers-vs-Preston-North-End-History" xr:uid="{23E9263B-2506-4151-982E-580F1E7E1EB4}"/>
-    <hyperlink ref="C49" r:id="rId271" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{40EFC49F-C041-4456-A3C9-A79818264175}"/>
-    <hyperlink ref="D49" r:id="rId272" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{0BCC241E-F7FE-4CC0-9346-019B1E628176}"/>
-    <hyperlink ref="J49" r:id="rId273" display="https://fbref.com/en/squads/fb10988f/Swansea-City-Stats" xr:uid="{5C5FCF87-A633-4966-BAAE-9709DBB50A85}"/>
-    <hyperlink ref="S49" r:id="rId274" display="https://fbref.com/en/stathead/matchup/teams/fb10988f/a757999c/Swansea-City-vs-Queens-Park-Rangers-History" xr:uid="{B77BF0F3-6065-48C0-97C0-522AF33F6B9A}"/>
-    <hyperlink ref="C50" r:id="rId275" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{426D6ED6-C419-4729-9C1B-C4CA77F52CCA}"/>
-    <hyperlink ref="D50" r:id="rId276" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{34293C2D-52D5-4662-9623-9CBCFA91FE32}"/>
-    <hyperlink ref="J50" r:id="rId277" display="https://fbref.com/en/squads/943e8050/Burnley-Stats" xr:uid="{639377D8-F4AF-4FEA-BC9D-4B8E37477026}"/>
-    <hyperlink ref="S50" r:id="rId278" display="https://fbref.com/en/stathead/matchup/teams/a757999c/943e8050/Queens-Park-Rangers-vs-Burnley-History" xr:uid="{B71ABB24-B9EF-437B-99A4-BE6D1BA089C8}"/>
-    <hyperlink ref="C51" r:id="rId279" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{8882E177-E3D6-47C4-8742-BF967352D9AE}"/>
-    <hyperlink ref="D51" r:id="rId280" display="https://fbref.com/en/comps/10/schedule/Championship-Scores-and-Fixtures" xr:uid="{1C81E3B7-64A2-4B6C-A3A9-D54B08389729}"/>
-    <hyperlink ref="J51" r:id="rId281" display="https://fbref.com/en/squads/8ef52968/Sunderland-Stats" xr:uid="{A8405690-9C3A-4CA0-8BD8-A8FEA67D1127}"/>
-    <hyperlink ref="S51" r:id="rId282" display="https://fbref.com/en/stathead/matchup/teams/a757999c/8ef52968/Queens-Park-Rangers-vs-Sunderland-History" xr:uid="{6A6B9D75-74DE-4FF9-BEF4-5A806F6142B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId283"/>
+  <pageSetup orientation="portrait" r:id="rId247"/>
 </worksheet>
 </file>